--- a/Steel.xlsx
+++ b/Steel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba650176d78d5c06/Documents/GitHub/Data Extract from Web/dataextract/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE721BEA-205A-481B-B438-84C32EF0C0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87468151-B3D0-4F4B-852B-C6041EB79EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5D61576-F3AF-4017-A1B5-6E9A326A3480}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D5D61576-F3AF-4017-A1B5-6E9A326A3480}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,24 +153,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFD966"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFD966"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFD966"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,10 +166,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -195,15 +178,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -225,9 +200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -265,7 +240,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -371,7 +346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -521,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9427189-BF77-4B9E-896C-D853AAE204F3}">
-  <dimension ref="A1:CN10"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CN10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,1830 +631,1158 @@
       <c r="AP1" s="3">
         <v>2050</v>
       </c>
-      <c r="AQ1" s="3">
-        <v>2051</v>
-      </c>
-      <c r="AR1" s="3">
-        <v>2052</v>
-      </c>
-      <c r="AS1" s="3">
-        <v>2053</v>
-      </c>
-      <c r="AT1" s="3">
-        <v>2054</v>
-      </c>
-      <c r="AU1" s="3">
-        <v>2055</v>
-      </c>
-      <c r="AV1" s="3">
-        <v>2056</v>
-      </c>
-      <c r="AW1" s="3">
-        <v>2057</v>
-      </c>
-      <c r="AX1" s="3">
-        <v>2058</v>
-      </c>
-      <c r="AY1" s="3">
-        <v>2059</v>
-      </c>
-      <c r="AZ1" s="4">
-        <v>2060</v>
-      </c>
-      <c r="BA1" s="5">
-        <v>2061</v>
-      </c>
-      <c r="BB1" s="5">
-        <v>2062</v>
-      </c>
-      <c r="BC1" s="5">
-        <v>2063</v>
-      </c>
-      <c r="BD1" s="5">
-        <v>2064</v>
-      </c>
-      <c r="BE1" s="5">
-        <v>2065</v>
-      </c>
-      <c r="BF1" s="5">
-        <v>2066</v>
-      </c>
-      <c r="BG1" s="5">
-        <v>2067</v>
-      </c>
-      <c r="BH1" s="5">
-        <v>2068</v>
-      </c>
-      <c r="BI1" s="5">
-        <v>2069</v>
-      </c>
-      <c r="BJ1" s="5">
-        <v>2070</v>
-      </c>
-      <c r="BK1" s="5">
-        <v>2071</v>
-      </c>
-      <c r="BL1" s="5">
-        <v>2072</v>
-      </c>
-      <c r="BM1" s="5">
-        <v>2073</v>
-      </c>
-      <c r="BN1" s="5">
-        <v>2074</v>
-      </c>
-      <c r="BO1" s="5">
-        <v>2075</v>
-      </c>
-      <c r="BP1" s="5">
-        <v>2076</v>
-      </c>
-      <c r="BQ1" s="5">
-        <v>2077</v>
-      </c>
-      <c r="BR1" s="5">
-        <v>2078</v>
-      </c>
-      <c r="BS1" s="5">
-        <v>2079</v>
-      </c>
-      <c r="BT1" s="5">
-        <v>2080</v>
-      </c>
-      <c r="BU1" s="5">
-        <v>2081</v>
-      </c>
-      <c r="BV1" s="5">
-        <v>2082</v>
-      </c>
-      <c r="BW1" s="5">
-        <v>2083</v>
-      </c>
-      <c r="BX1" s="5">
-        <v>2084</v>
-      </c>
-      <c r="BY1" s="5">
-        <v>2085</v>
-      </c>
-      <c r="BZ1" s="5">
-        <v>2086</v>
-      </c>
-      <c r="CA1" s="5">
-        <v>2087</v>
-      </c>
-      <c r="CB1" s="5">
-        <v>2088</v>
-      </c>
-      <c r="CC1" s="5">
-        <v>2089</v>
-      </c>
-      <c r="CD1" s="5">
-        <v>2090</v>
-      </c>
-      <c r="CE1" s="5">
-        <v>2091</v>
-      </c>
-      <c r="CF1" s="5">
-        <v>2092</v>
-      </c>
-      <c r="CG1" s="5">
-        <v>2093</v>
-      </c>
-      <c r="CH1" s="5">
-        <v>2094</v>
-      </c>
-      <c r="CI1" s="5">
-        <v>2095</v>
-      </c>
-      <c r="CJ1" s="5">
-        <v>2096</v>
-      </c>
-      <c r="CK1" s="5">
-        <v>2097</v>
-      </c>
-      <c r="CL1" s="5">
-        <v>2098</v>
-      </c>
-      <c r="CM1" s="5">
-        <v>2099</v>
-      </c>
-      <c r="CN1" s="5">
-        <v>2100</v>
-      </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>2338.41</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>2260.96</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>2183.5100000000002</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>2106.06</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>2028.61</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>1951.16</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <v>1873.7</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>1796.25</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="6">
         <v>1718.8</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="6">
         <v>1641.35</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="6">
         <v>1563.9</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="6">
         <v>1486.45</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="6">
         <v>1421.6</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="6">
         <v>1356.75</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="6">
         <v>1291.9000000000001</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="6">
         <v>1227.06</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="6">
         <v>1162.21</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="6">
         <v>1109.25</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="6">
         <v>1056.28</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="6">
         <v>1003.32</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="Z2" s="7">
         <v>950.35</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="AA2" s="7">
         <v>897.39</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AB2" s="7">
         <v>873.55</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AC2" s="7">
         <v>849.7</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AD2" s="7">
         <v>825.86</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AE2" s="7">
         <v>802.02</v>
       </c>
-      <c r="AF2" s="9">
+      <c r="AF2" s="7">
         <v>778.17</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AG2" s="7">
         <v>751.95</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AH2" s="7">
         <v>725.72</v>
       </c>
-      <c r="AI2" s="9">
+      <c r="AI2" s="7">
         <v>699.5</v>
       </c>
-      <c r="AJ2" s="9">
+      <c r="AJ2" s="7">
         <v>673.27</v>
       </c>
-      <c r="AK2" s="9">
+      <c r="AK2" s="7">
         <v>647.04999999999995</v>
       </c>
-      <c r="AL2" s="9">
+      <c r="AL2" s="7">
         <v>615.16</v>
       </c>
-      <c r="AM2" s="9">
+      <c r="AM2" s="7">
         <v>583.27</v>
       </c>
-      <c r="AN2" s="9">
+      <c r="AN2" s="7">
         <v>551.39</v>
       </c>
-      <c r="AO2" s="9">
+      <c r="AO2" s="7">
         <v>519.5</v>
       </c>
-      <c r="AP2" s="9">
+      <c r="AP2" s="7">
         <v>487.61</v>
       </c>
-      <c r="AQ2" s="9">
-        <v>465.65</v>
-      </c>
-      <c r="AR2" s="9">
-        <v>443.69</v>
-      </c>
-      <c r="AS2" s="9">
-        <v>421.74</v>
-      </c>
-      <c r="AT2" s="9">
-        <v>399.78</v>
-      </c>
-      <c r="AU2" s="9">
-        <v>377.82</v>
-      </c>
-      <c r="AV2" s="9">
-        <v>343.84</v>
-      </c>
-      <c r="AW2" s="9">
-        <v>309.86</v>
-      </c>
-      <c r="AX2" s="9">
-        <v>275.88</v>
-      </c>
-      <c r="AY2" s="9">
-        <v>241.91</v>
-      </c>
-      <c r="AZ2" s="10">
-        <v>207.93</v>
-      </c>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="11"/>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="11"/>
-      <c r="CC2" s="11"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="11"/>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="11"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>4282.8999999999996</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>4294.3</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>4305.7</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>4317.1099999999997</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>4328.51</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>4339.92</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>4351.32</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>4362.7299999999996</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="6">
         <v>4374.13</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="6">
         <v>4385.53</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="6">
         <v>4396.9399999999996</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="6">
         <v>4408.34</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="6">
         <v>4445.82</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="6">
         <v>4483.3100000000004</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="6">
         <v>4520.79</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="6">
         <v>4558.2700000000004</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="6">
         <v>4595.75</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="6">
         <v>4624.22</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="6">
         <v>4652.68</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="6">
         <v>4681.1499999999996</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="6">
         <v>4709.62</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="6">
         <v>4738.08</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AB3" s="6">
         <v>4794.7700000000004</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AC3" s="6">
         <v>4851.45</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AD3" s="6">
         <v>4908.13</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE3" s="6">
         <v>4964.82</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="6">
         <v>5021.5</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AG3" s="6">
         <v>5054.5200000000004</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AH3" s="6">
         <v>5087.55</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AI3" s="6">
         <v>5120.57</v>
       </c>
-      <c r="AJ3" s="8">
+      <c r="AJ3" s="6">
         <v>5153.6000000000004</v>
       </c>
-      <c r="AK3" s="8">
+      <c r="AK3" s="6">
         <v>5186.62</v>
       </c>
-      <c r="AL3" s="8">
+      <c r="AL3" s="6">
         <v>5224.5200000000004</v>
       </c>
-      <c r="AM3" s="8">
+      <c r="AM3" s="6">
         <v>5262.41</v>
       </c>
-      <c r="AN3" s="8">
+      <c r="AN3" s="6">
         <v>5300.3</v>
       </c>
-      <c r="AO3" s="8">
+      <c r="AO3" s="6">
         <v>5338.2</v>
       </c>
-      <c r="AP3" s="8">
+      <c r="AP3" s="6">
         <v>5376.09</v>
       </c>
-      <c r="AQ3" s="8">
-        <v>5410.39</v>
-      </c>
-      <c r="AR3" s="8">
-        <v>5444.69</v>
-      </c>
-      <c r="AS3" s="8">
-        <v>5478.99</v>
-      </c>
-      <c r="AT3" s="8">
-        <v>5513.29</v>
-      </c>
-      <c r="AU3" s="8">
-        <v>5547.59</v>
-      </c>
-      <c r="AV3" s="8">
-        <v>5592.29</v>
-      </c>
-      <c r="AW3" s="8">
-        <v>5636.99</v>
-      </c>
-      <c r="AX3" s="8">
-        <v>5681.69</v>
-      </c>
-      <c r="AY3" s="8">
-        <v>5726.4</v>
-      </c>
-      <c r="AZ3" s="12">
-        <v>5771.1</v>
-      </c>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="11"/>
-      <c r="BR3" s="11"/>
-      <c r="BS3" s="11"/>
-      <c r="BT3" s="11"/>
-      <c r="BU3" s="11"/>
-      <c r="BV3" s="11"/>
-      <c r="BW3" s="11"/>
-      <c r="BX3" s="11"/>
-      <c r="BY3" s="11"/>
-      <c r="BZ3" s="11"/>
-      <c r="CA3" s="11"/>
-      <c r="CB3" s="11"/>
-      <c r="CC3" s="11"/>
-      <c r="CD3" s="11"/>
-      <c r="CE3" s="11"/>
-      <c r="CF3" s="11"/>
-      <c r="CG3" s="11"/>
-      <c r="CH3" s="11"/>
-      <c r="CI3" s="11"/>
-      <c r="CJ3" s="11"/>
-      <c r="CK3" s="11"/>
-      <c r="CL3" s="11"/>
-      <c r="CM3" s="11"/>
-      <c r="CN3" s="11"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>1670141000</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>1670592242.23</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>1671043484.46</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>1671494726.6900001</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>1671945968.9200001</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>1672397211.1600001</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>1672848453.3900001</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>1673299695.6199999</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="6">
         <v>1673750937.8499999</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <v>1674202180.0799999</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="6">
         <v>1674653422.3099999</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="6">
         <v>1675104664.54</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="6">
         <v>1672666328.28</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="6">
         <v>1670227992.01</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="6">
         <v>1667789655.75</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="6">
         <v>1665351319.49</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="6">
         <v>1662912983.22</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="6">
         <v>1671935129.6199999</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="6">
         <v>1680957276.02</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="6">
         <v>1689979422.4100001</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="6">
         <v>1699001568.8099999</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="6">
         <v>1708023715.21</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="6">
         <v>1720333624.6900001</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="6">
         <v>1732643534.1800001</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="6">
         <v>1744953443.6700001</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="6">
         <v>1757263353.1500001</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="6">
         <v>1769573262.6400001</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="6">
         <v>1771451320.6900001</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="6">
         <v>1773329378.74</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="6">
         <v>1775207436.79</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AJ4" s="6">
         <v>1777085494.8399999</v>
       </c>
-      <c r="AK4" s="8">
+      <c r="AK4" s="6">
         <v>1778963552.8900001</v>
       </c>
-      <c r="AL4" s="8">
+      <c r="AL4" s="6">
         <v>1788262951.3599999</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AM4" s="6">
         <v>1797562349.8199999</v>
       </c>
-      <c r="AN4" s="8">
+      <c r="AN4" s="6">
         <v>1806861748.28</v>
       </c>
-      <c r="AO4" s="8">
+      <c r="AO4" s="6">
         <v>1816161146.75</v>
       </c>
-      <c r="AP4" s="8">
+      <c r="AP4" s="6">
         <v>1825460545.21</v>
       </c>
-      <c r="AQ4" s="8">
-        <v>1824012496.8299999</v>
-      </c>
-      <c r="AR4" s="8">
-        <v>1822564448.4400001</v>
-      </c>
-      <c r="AS4" s="8">
-        <v>1821116400.0599999</v>
-      </c>
-      <c r="AT4" s="8">
-        <v>1819668351.6700001</v>
-      </c>
-      <c r="AU4" s="8">
-        <v>1818220303.29</v>
-      </c>
-      <c r="AV4" s="8">
-        <v>1810413092.77</v>
-      </c>
-      <c r="AW4" s="8">
-        <v>1802605882.25</v>
-      </c>
-      <c r="AX4" s="8">
-        <v>1794798671.74</v>
-      </c>
-      <c r="AY4" s="8">
-        <v>1786991461.22</v>
-      </c>
-      <c r="AZ4" s="12">
-        <v>1779184250.7</v>
-      </c>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="11"/>
-      <c r="BR4" s="11"/>
-      <c r="BS4" s="11"/>
-      <c r="BT4" s="11"/>
-      <c r="BU4" s="11"/>
-      <c r="BV4" s="11"/>
-      <c r="BW4" s="11"/>
-      <c r="BX4" s="11"/>
-      <c r="BY4" s="11"/>
-      <c r="BZ4" s="11"/>
-      <c r="CA4" s="11"/>
-      <c r="CB4" s="11"/>
-      <c r="CC4" s="11"/>
-      <c r="CD4" s="11"/>
-      <c r="CE4" s="11"/>
-      <c r="CF4" s="11"/>
-      <c r="CG4" s="11"/>
-      <c r="CH4" s="11"/>
-      <c r="CI4" s="11"/>
-      <c r="CJ4" s="11"/>
-      <c r="CK4" s="11"/>
-      <c r="CL4" s="11"/>
-      <c r="CM4" s="11"/>
-      <c r="CN4" s="11"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>2507</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>2507</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>2507</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>2507</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>2507</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>2507</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>2349</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>2374.64</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="6">
         <v>2308.4499999999998</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="6">
         <v>2242.27</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="6">
         <v>2176.09</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="6">
         <v>2109.91</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="6">
         <v>2043.73</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="6">
         <v>1977.55</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <v>1911.36</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="6">
         <v>1845.18</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="6">
         <v>1779</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="6">
         <v>1687</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="6">
         <v>1595</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="6">
         <v>1503</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="6">
         <v>1411</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="6">
         <v>1319</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="6">
         <v>1227</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="6">
         <v>1135</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="6">
         <v>1043</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AE5" s="7">
         <v>951</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="7">
         <v>859</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AG5" s="7">
         <v>795.1</v>
       </c>
-      <c r="AH5" s="9">
+      <c r="AH5" s="7">
         <v>731.2</v>
       </c>
-      <c r="AI5" s="9">
+      <c r="AI5" s="7">
         <v>667.3</v>
       </c>
-      <c r="AJ5" s="9">
+      <c r="AJ5" s="7">
         <v>603.4</v>
       </c>
-      <c r="AK5" s="9">
+      <c r="AK5" s="7">
         <v>539.5</v>
       </c>
-      <c r="AL5" s="9">
+      <c r="AL5" s="7">
         <v>475.6</v>
       </c>
-      <c r="AM5" s="9">
+      <c r="AM5" s="7">
         <v>411.7</v>
       </c>
-      <c r="AN5" s="9">
+      <c r="AN5" s="7">
         <v>347.8</v>
       </c>
-      <c r="AO5" s="9">
+      <c r="AO5" s="7">
         <v>283.89999999999998</v>
       </c>
-      <c r="AP5" s="9">
+      <c r="AP5" s="7">
         <v>220</v>
       </c>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="11"/>
-      <c r="BH5" s="11"/>
-      <c r="BI5" s="11"/>
-      <c r="BJ5" s="11"/>
-      <c r="BK5" s="11"/>
-      <c r="BL5" s="11"/>
-      <c r="BM5" s="11"/>
-      <c r="BN5" s="11"/>
-      <c r="BO5" s="11"/>
-      <c r="BP5" s="11"/>
-      <c r="BQ5" s="11"/>
-      <c r="BR5" s="11"/>
-      <c r="BS5" s="11"/>
-      <c r="BT5" s="11"/>
-      <c r="BU5" s="11"/>
-      <c r="BV5" s="11"/>
-      <c r="BW5" s="11"/>
-      <c r="BX5" s="11"/>
-      <c r="BY5" s="11"/>
-      <c r="BZ5" s="11"/>
-      <c r="CA5" s="11"/>
-      <c r="CB5" s="11"/>
-      <c r="CC5" s="11"/>
-      <c r="CD5" s="11"/>
-      <c r="CE5" s="11"/>
-      <c r="CF5" s="11"/>
-      <c r="CG5" s="11"/>
-      <c r="CH5" s="11"/>
-      <c r="CI5" s="11"/>
-      <c r="CJ5" s="11"/>
-      <c r="CK5" s="11"/>
-      <c r="CL5" s="11"/>
-      <c r="CM5" s="11"/>
-      <c r="CN5" s="11"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>4850.1099999999997</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>4850.1099999999997</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>4850.1099999999997</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>4850.1099999999997</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>4850.1099999999997</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>4850.1099999999997</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>4632.6400000000003</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>4905.2</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="6">
         <v>4932.8500000000004</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="6">
         <v>4960.57</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="6">
         <v>4988.37</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="6">
         <v>5016.2299999999996</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="6">
         <v>5082.68</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="6">
         <v>5149.6099999999997</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="6">
         <v>5217.01</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="6">
         <v>5284.88</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="6">
         <v>5353.24</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="6">
         <v>5363.14</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="6">
         <v>5373</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="6">
         <v>5382.83</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="6">
         <v>5392.63</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="6">
         <v>5402.39</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="6">
         <v>5433.76</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="6">
         <v>5464.81</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="6">
         <v>5495.57</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="6">
         <v>5526.03</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="6">
         <v>5556.2</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="6">
         <v>5595.08</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="6">
         <v>5633.99</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="6">
         <v>5672.93</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AJ6" s="6">
         <v>5711.9</v>
       </c>
-      <c r="AK6" s="8">
+      <c r="AK6" s="6">
         <v>5750.88</v>
       </c>
-      <c r="AL6" s="8">
+      <c r="AL6" s="6">
         <v>5771.25</v>
       </c>
-      <c r="AM6" s="8">
+      <c r="AM6" s="6">
         <v>5791.52</v>
       </c>
-      <c r="AN6" s="8">
+      <c r="AN6" s="6">
         <v>5811.71</v>
       </c>
-      <c r="AO6" s="8">
+      <c r="AO6" s="6">
         <v>5831.82</v>
       </c>
-      <c r="AP6" s="8">
+      <c r="AP6" s="6">
         <v>5851.84</v>
       </c>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="11"/>
-      <c r="BJ6" s="11"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="11"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="11"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="11"/>
-      <c r="BY6" s="11"/>
-      <c r="BZ6" s="11"/>
-      <c r="CA6" s="11"/>
-      <c r="CB6" s="11"/>
-      <c r="CC6" s="11"/>
-      <c r="CD6" s="11"/>
-      <c r="CE6" s="11"/>
-      <c r="CF6" s="11"/>
-      <c r="CG6" s="11"/>
-      <c r="CH6" s="11"/>
-      <c r="CI6" s="11"/>
-      <c r="CJ6" s="11"/>
-      <c r="CK6" s="11"/>
-      <c r="CL6" s="11"/>
-      <c r="CM6" s="11"/>
-      <c r="CN6" s="11"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>1869000000</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>1869000000</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>1869000000</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>1869000000</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>1869000000</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>1869000000</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>1781000000</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>1881363636.3599999</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="6">
         <v>1887545454.55</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="6">
         <v>1893727272.73</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="6">
         <v>1899909090.9100001</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="6">
         <v>1906090909.0899999</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="6">
         <v>1912272727.27</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="6">
         <v>1918454545.45</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="6">
         <v>1924636363.6400001</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="6">
         <v>1930818181.8199999</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="6">
         <v>1937000000</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="6">
         <v>1939100000</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="6">
         <v>1941200000</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="6">
         <v>1943300000</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="6">
         <v>1945400000</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="6">
         <v>1947500000</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="6">
         <v>1949600000</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="6">
         <v>1951700000</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AD7" s="6">
         <v>1953800000</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="6">
         <v>1955900000</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="6">
         <v>1958000000</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="6">
         <v>1960900000</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="6">
         <v>1963800000</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="6">
         <v>1966700000</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AJ7" s="6">
         <v>1969600000</v>
       </c>
-      <c r="AK7" s="8">
+      <c r="AK7" s="6">
         <v>1972500000</v>
       </c>
-      <c r="AL7" s="8">
+      <c r="AL7" s="6">
         <v>1975400000</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AM7" s="6">
         <v>1978300000</v>
       </c>
-      <c r="AN7" s="8">
+      <c r="AN7" s="6">
         <v>1981200000</v>
       </c>
-      <c r="AO7" s="8">
+      <c r="AO7" s="6">
         <v>1984100000</v>
       </c>
-      <c r="AP7" s="8">
+      <c r="AP7" s="6">
         <v>1987000000</v>
       </c>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="11"/>
-      <c r="BN7" s="11"/>
-      <c r="BO7" s="11"/>
-      <c r="BP7" s="11"/>
-      <c r="BQ7" s="11"/>
-      <c r="BR7" s="11"/>
-      <c r="BS7" s="11"/>
-      <c r="BT7" s="11"/>
-      <c r="BU7" s="11"/>
-      <c r="BV7" s="11"/>
-      <c r="BW7" s="11"/>
-      <c r="BX7" s="11"/>
-      <c r="BY7" s="11"/>
-      <c r="BZ7" s="11"/>
-      <c r="CA7" s="11"/>
-      <c r="CB7" s="11"/>
-      <c r="CC7" s="11"/>
-      <c r="CD7" s="11"/>
-      <c r="CE7" s="11"/>
-      <c r="CF7" s="11"/>
-      <c r="CG7" s="11"/>
-      <c r="CH7" s="11"/>
-      <c r="CI7" s="11"/>
-      <c r="CJ7" s="11"/>
-      <c r="CK7" s="11"/>
-      <c r="CL7" s="11"/>
-      <c r="CM7" s="11"/>
-      <c r="CN7" s="11"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>3519.09</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>3519.09</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>3519.09</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>3519.09</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>3519.47</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>3519.09</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <v>3219.67</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <v>3210.78</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="7">
         <v>3112.74</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="7">
         <v>3014.69</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="7">
         <v>2916.61</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="7">
         <v>2818.51</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="7">
         <v>2720.39</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="7">
         <v>2622.24</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="7">
         <v>2524.0700000000002</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="7">
         <v>2425.87</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="7">
         <v>2327.66</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="7">
         <v>2201.69</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="7">
         <v>2075.71</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="7">
         <v>1949.73</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="7">
         <v>1823.75</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AA8" s="7">
         <v>1697.77</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="7">
         <v>1571.78</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AC8" s="7">
         <v>1445.79</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AD8" s="7">
         <v>1319.79</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AE8" s="7">
         <v>1193.79</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AF8" s="7">
         <v>1067.79</v>
       </c>
-      <c r="AG8" s="9">
+      <c r="AG8" s="7">
         <v>982.72</v>
       </c>
-      <c r="AH8" s="9">
+      <c r="AH8" s="7">
         <v>897.66</v>
       </c>
-      <c r="AI8" s="9">
+      <c r="AI8" s="7">
         <v>812.6</v>
       </c>
-      <c r="AJ8" s="9">
+      <c r="AJ8" s="7">
         <v>727.54</v>
       </c>
-      <c r="AK8" s="9">
+      <c r="AK8" s="7">
         <v>642.48</v>
       </c>
-      <c r="AL8" s="9">
+      <c r="AL8" s="7">
         <v>557.41</v>
       </c>
-      <c r="AM8" s="9">
+      <c r="AM8" s="7">
         <v>472.35</v>
       </c>
-      <c r="AN8" s="9">
+      <c r="AN8" s="7">
         <v>387.29</v>
       </c>
-      <c r="AO8" s="9">
+      <c r="AO8" s="7">
         <v>302.22000000000003</v>
       </c>
-      <c r="AP8" s="9">
+      <c r="AP8" s="7">
         <v>217.16</v>
       </c>
-      <c r="AQ8" s="8">
-        <v>74375.16</v>
-      </c>
-      <c r="AR8" s="8">
-        <v>53260.25</v>
-      </c>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="11"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
-      <c r="BK8" s="11"/>
-      <c r="BL8" s="11"/>
-      <c r="BM8" s="11"/>
-      <c r="BN8" s="11"/>
-      <c r="BO8" s="11"/>
-      <c r="BP8" s="11"/>
-      <c r="BQ8" s="11"/>
-      <c r="BR8" s="11"/>
-      <c r="BS8" s="11"/>
-      <c r="BT8" s="11"/>
-      <c r="BU8" s="11"/>
-      <c r="BV8" s="11"/>
-      <c r="BW8" s="11"/>
-      <c r="BX8" s="11"/>
-      <c r="BY8" s="11"/>
-      <c r="BZ8" s="11"/>
-      <c r="CA8" s="11"/>
-      <c r="CB8" s="11"/>
-      <c r="CC8" s="11"/>
-      <c r="CD8" s="11"/>
-      <c r="CE8" s="11"/>
-      <c r="CF8" s="11"/>
-      <c r="CG8" s="11"/>
-      <c r="CH8" s="11"/>
-      <c r="CI8" s="11"/>
-      <c r="CJ8" s="11"/>
-      <c r="CK8" s="11"/>
-      <c r="CL8" s="11"/>
-      <c r="CM8" s="11"/>
-      <c r="CN8" s="11"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>2.35</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>2.4209999999999998</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>2.4420000000000002</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>2.464</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>2.4870000000000001</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
         <v>2.5099999999999998</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="7">
         <v>2.423</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="7">
         <v>2.2970000000000002</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="7">
         <v>2.2330000000000001</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="7">
         <v>2.169</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="7">
         <v>2.105</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="7">
         <v>2.0409999999999999</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="7">
         <v>1.976</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="7">
         <v>1.911</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="7">
         <v>1.8440000000000001</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="7">
         <v>1.778</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="7">
         <v>1.712</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="7">
         <v>1.621</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="7">
         <v>1.5289999999999999</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="7">
         <v>1.4370000000000001</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="7">
         <v>1.3440000000000001</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA9" s="7">
         <v>1.2490000000000001</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="7">
         <v>1.155</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="7">
         <v>1.0589999999999999</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AD9" s="7">
         <v>0.96299999999999997</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AE9" s="7">
         <v>0.86499999999999999</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AF9" s="7">
         <v>0.76700000000000002</v>
       </c>
-      <c r="AG9" s="9">
+      <c r="AG9" s="7">
         <v>0.70299999999999996</v>
       </c>
-      <c r="AH9" s="9">
+      <c r="AH9" s="7">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AI9" s="9">
+      <c r="AI9" s="7">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AJ9" s="9">
+      <c r="AJ9" s="7">
         <v>0.51</v>
       </c>
-      <c r="AK9" s="9">
+      <c r="AK9" s="7">
         <v>0.44400000000000001</v>
       </c>
-      <c r="AL9" s="9">
+      <c r="AL9" s="7">
         <v>0.379</v>
       </c>
-      <c r="AM9" s="9">
+      <c r="AM9" s="7">
         <v>0.312</v>
       </c>
-      <c r="AN9" s="9">
+      <c r="AN9" s="7">
         <v>0.245</v>
       </c>
-      <c r="AO9" s="9">
+      <c r="AO9" s="7">
         <v>0.17799999999999999</v>
       </c>
-      <c r="AP9" s="9">
+      <c r="AP9" s="7">
         <v>0.109</v>
       </c>
-      <c r="AQ9" s="9">
-        <v>53.247999999999998</v>
-      </c>
-      <c r="AR9" s="9">
-        <v>38.573999999999998</v>
-      </c>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="11"/>
-      <c r="BB9" s="11"/>
-      <c r="BC9" s="11"/>
-      <c r="BD9" s="11"/>
-      <c r="BE9" s="11"/>
-      <c r="BF9" s="11"/>
-      <c r="BG9" s="11"/>
-      <c r="BH9" s="11"/>
-      <c r="BI9" s="11"/>
-      <c r="BJ9" s="11"/>
-      <c r="BK9" s="11"/>
-      <c r="BL9" s="11"/>
-      <c r="BM9" s="11"/>
-      <c r="BN9" s="11"/>
-      <c r="BO9" s="11"/>
-      <c r="BP9" s="11"/>
-      <c r="BQ9" s="11"/>
-      <c r="BR9" s="11"/>
-      <c r="BS9" s="11"/>
-      <c r="BT9" s="11"/>
-      <c r="BU9" s="11"/>
-      <c r="BV9" s="11"/>
-      <c r="BW9" s="11"/>
-      <c r="BX9" s="11"/>
-      <c r="BY9" s="11"/>
-      <c r="BZ9" s="11"/>
-      <c r="CA9" s="11"/>
-      <c r="CB9" s="11"/>
-      <c r="CC9" s="11"/>
-      <c r="CD9" s="11"/>
-      <c r="CE9" s="11"/>
-      <c r="CF9" s="11"/>
-      <c r="CG9" s="11"/>
-      <c r="CH9" s="11"/>
-      <c r="CI9" s="11"/>
-      <c r="CJ9" s="11"/>
-      <c r="CK9" s="11"/>
-      <c r="CL9" s="11"/>
-      <c r="CM9" s="11"/>
-      <c r="CN9" s="11"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>0.55200000000000005</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>0.56499999999999995</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>0.55200000000000005</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>0.53900000000000003</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>0.52600000000000002</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="7">
         <v>0.5</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="7">
         <v>0.48699999999999999</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="7">
         <v>0.47399999999999998</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="7">
         <v>0.46100000000000002</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="7">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="7">
         <v>0.435</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="7">
         <v>0.42199999999999999</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="7">
         <v>0.40899999999999997</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="7">
         <v>0.39600000000000002</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="7">
         <v>0.38300000000000001</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="7">
         <v>0.37</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="7">
         <v>0.35699999999999998</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="7">
         <v>0.34399999999999997</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="7">
         <v>0.33100000000000002</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="7">
         <v>0.318</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="7">
         <v>0.30499999999999999</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="7">
         <v>0.27900000000000003</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AD10" s="7">
         <v>0.26600000000000001</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AE10" s="7">
         <v>0.253</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AF10" s="7">
         <v>0.24</v>
       </c>
-      <c r="AG10" s="9">
+      <c r="AG10" s="7">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AH10" s="9">
+      <c r="AH10" s="7">
         <v>0.21299999999999999</v>
       </c>
-      <c r="AI10" s="9">
+      <c r="AI10" s="7">
         <v>0.2</v>
       </c>
-      <c r="AJ10" s="9">
+      <c r="AJ10" s="7">
         <v>0.187</v>
       </c>
-      <c r="AK10" s="9">
+      <c r="AK10" s="7">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AL10" s="9">
+      <c r="AL10" s="7">
         <v>0.161</v>
       </c>
-      <c r="AM10" s="9">
+      <c r="AM10" s="7">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AN10" s="9">
+      <c r="AN10" s="7">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AO10" s="9">
+      <c r="AO10" s="7">
         <v>0.122</v>
       </c>
-      <c r="AP10" s="9">
+      <c r="AP10" s="7">
         <v>0.109</v>
       </c>
-      <c r="AQ10" s="9">
-        <v>12.691000000000001</v>
-      </c>
-      <c r="AR10" s="9">
-        <v>9.4429999999999996</v>
-      </c>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="11"/>
-      <c r="BB10" s="11"/>
-      <c r="BC10" s="11"/>
-      <c r="BD10" s="11"/>
-      <c r="BE10" s="11"/>
-      <c r="BF10" s="11"/>
-      <c r="BG10" s="11"/>
-      <c r="BH10" s="11"/>
-      <c r="BI10" s="11"/>
-      <c r="BJ10" s="11"/>
-      <c r="BK10" s="11"/>
-      <c r="BL10" s="11"/>
-      <c r="BM10" s="11"/>
-      <c r="BN10" s="11"/>
-      <c r="BO10" s="11"/>
-      <c r="BP10" s="11"/>
-      <c r="BQ10" s="11"/>
-      <c r="BR10" s="11"/>
-      <c r="BS10" s="11"/>
-      <c r="BT10" s="11"/>
-      <c r="BU10" s="11"/>
-      <c r="BV10" s="11"/>
-      <c r="BW10" s="11"/>
-      <c r="BX10" s="11"/>
-      <c r="BY10" s="11"/>
-      <c r="BZ10" s="11"/>
-      <c r="CA10" s="11"/>
-      <c r="CB10" s="11"/>
-      <c r="CC10" s="11"/>
-      <c r="CD10" s="11"/>
-      <c r="CE10" s="11"/>
-      <c r="CF10" s="11"/>
-      <c r="CG10" s="11"/>
-      <c r="CH10" s="11"/>
-      <c r="CI10" s="11"/>
-      <c r="CJ10" s="11"/>
-      <c r="CK10" s="11"/>
-      <c r="CL10" s="11"/>
-      <c r="CM10" s="11"/>
-      <c r="CN10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
